--- a/BaseA.xlsx
+++ b/BaseA.xlsx
@@ -366,7 +366,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
